--- a/tests/indicators/a-d/Adx/Adx.Calc.xlsx
+++ b/tests/indicators/a-d/Adx/Adx.Calc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF9A6A-99A3-4FFD-9355-CB29C734A946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D8B8F-9F53-4B0A-A856-4006463BEA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>adxr</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -806,26 +809,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -867,6 +850,26 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1187,7 +1190,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="24" dataCellStyle="Comma 2"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="24" dataCellStyle="Comma 2"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="22" dataCellStyle="Comma 2"/>
     <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="21" dataCellStyle="Comma 2"/>
@@ -1214,19 +1217,19 @@
       <calculatedColumnFormula>100*ABS(testdata[[#This Row],[+DI14]]-testdata[[#This Row],[-DI14]])/(testdata[[#This Row],[+DI14]]+testdata[[#This Row],[-DI14]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{C3A112D9-DE9E-4855-935F-228D9D653A24}" name="ADX" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{69B3BE06-AD58-415D-A5DE-8C0051CA6256}" name="ADXR" dataDxfId="3" dataCellStyle="Comma 2"/>
+    <tableColumn id="1" xr3:uid="{69B3BE06-AD58-415D-A5DE-8C0051CA6256}" name="ADXR" dataDxfId="9" dataCellStyle="Comma 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB29804-55A6-41F6-882C-1BE8DB650C44}" name="Table2" displayName="Table2" ref="R1:U503" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB29804-55A6-41F6-882C-1BE8DB650C44}" name="Table2" displayName="Table2" ref="R1:U503" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{33AFF1C0-F3FA-4119-9250-1A42F1D28D35}" name="index" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{2E497E7C-020A-446F-AB6F-4255C895161B}" name="pdi" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2E9F5963-78D7-4D6D-8196-067E6B890E67}" name="mdi" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{DBC0647D-07F7-4BC6-9BCF-52FA8325ECB6}" name="adx" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{33AFF1C0-F3FA-4119-9250-1A42F1D28D35}" name="index" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{2E497E7C-020A-446F-AB6F-4255C895161B}" name="pdi" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2E9F5963-78D7-4D6D-8196-067E6B890E67}" name="mdi" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{DBC0647D-07F7-4BC6-9BCF-52FA8325ECB6}" name="adx" dataDxfId="3" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1548,7 +1551,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
@@ -1563,7 +1566,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>42738</v>
@@ -1673,7 +1676,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>42739</v>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>42740</v>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>42741</v>
@@ -1817,7 +1820,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>42744</v>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>42745</v>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>42746</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>42747</v>
@@ -2009,7 +2012,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>42748</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>42752</v>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>42753</v>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>42754</v>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>42755</v>
@@ -2249,7 +2252,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>42758</v>
@@ -2297,7 +2300,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>42759</v>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>42760</v>
@@ -2437,7 +2440,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>42761</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>42762</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>42765</v>
@@ -2647,7 +2650,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>42766</v>
@@ -2717,7 +2720,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>42767</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>42768</v>
@@ -2857,7 +2860,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>42769</v>
@@ -2927,7 +2930,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>42772</v>
@@ -2997,7 +3000,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>42773</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>42774</v>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>42775</v>
@@ -3207,7 +3210,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>42776</v>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>42779</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>42780</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>42781</v>
@@ -3515,7 +3518,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>42782</v>
@@ -3592,7 +3595,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>42783</v>
@@ -3669,7 +3672,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>42787</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>42788</v>
@@ -3823,7 +3826,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>42789</v>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>42790</v>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>42793</v>
@@ -4054,7 +4057,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>42794</v>
@@ -4131,7 +4134,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>42795</v>
@@ -4208,7 +4211,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>42796</v>
@@ -4290,7 +4293,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>42797</v>
@@ -4372,7 +4375,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>42800</v>
@@ -4454,7 +4457,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>42801</v>
@@ -4536,7 +4539,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>42802</v>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>42803</v>
@@ -4700,7 +4703,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>42804</v>
@@ -4782,7 +4785,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>42807</v>
@@ -4864,7 +4867,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>42808</v>
@@ -4946,7 +4949,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>42809</v>
@@ -5028,7 +5031,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>42810</v>
@@ -5110,7 +5113,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>42811</v>
@@ -5192,7 +5195,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>42814</v>
@@ -5274,7 +5277,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>42815</v>
@@ -5356,7 +5359,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>42816</v>
@@ -5438,7 +5441,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>42817</v>
@@ -5520,7 +5523,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>42818</v>
@@ -5602,7 +5605,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>42821</v>
@@ -5684,7 +5687,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>42822</v>
@@ -5766,7 +5769,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>42823</v>
@@ -5848,7 +5851,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>42824</v>
@@ -5930,7 +5933,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>42825</v>
@@ -6012,7 +6015,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>42828</v>
@@ -6094,7 +6097,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>42829</v>
@@ -6176,7 +6179,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>42830</v>
@@ -6258,7 +6261,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>42831</v>
@@ -6340,7 +6343,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>42832</v>
@@ -6422,7 +6425,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>42835</v>
@@ -6504,7 +6507,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>42836</v>
@@ -6586,7 +6589,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>42837</v>
@@ -6668,7 +6671,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>42838</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>42842</v>
@@ -6832,7 +6835,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>42843</v>
@@ -6914,7 +6917,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>42844</v>
@@ -6996,7 +6999,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>42845</v>
@@ -7078,7 +7081,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>42846</v>
@@ -7160,7 +7163,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>42849</v>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>42850</v>
@@ -7324,7 +7327,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>42851</v>
@@ -7406,7 +7409,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>42852</v>
@@ -7488,7 +7491,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>42853</v>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>42856</v>
@@ -7652,7 +7655,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>42857</v>
@@ -7734,7 +7737,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <v>42858</v>
@@ -7816,7 +7819,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <v>42859</v>
@@ -7898,7 +7901,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <v>42860</v>
@@ -7980,7 +7983,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <v>42863</v>
@@ -8062,7 +8065,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <v>42864</v>
@@ -8144,7 +8147,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>42865</v>
@@ -8226,7 +8229,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>42866</v>
@@ -8308,7 +8311,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
         <v>42867</v>
@@ -8390,7 +8393,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <v>42870</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <v>42871</v>
@@ -8554,7 +8557,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>42872</v>
@@ -8636,7 +8639,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <v>42873</v>
@@ -8718,7 +8721,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
         <v>42874</v>
@@ -8800,7 +8803,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>42877</v>
@@ -8882,7 +8885,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
         <v>42878</v>
@@ -8964,7 +8967,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <v>42879</v>
@@ -9046,7 +9049,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>42880</v>
@@ -9128,7 +9131,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>42881</v>
@@ -9210,7 +9213,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <v>42885</v>
@@ -9292,7 +9295,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <v>42886</v>
@@ -9374,7 +9377,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>42887</v>
@@ -9456,7 +9459,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>42888</v>
@@ -9538,7 +9541,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <v>42891</v>
@@ -9620,7 +9623,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <v>42892</v>
@@ -9702,7 +9705,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <v>42893</v>
@@ -9784,7 +9787,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>42894</v>
@@ -9866,7 +9869,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <v>42895</v>
@@ -9948,7 +9951,7 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <v>42898</v>
@@ -10030,7 +10033,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <v>42899</v>
@@ -10112,7 +10115,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <v>42900</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <v>42901</v>
@@ -10276,7 +10279,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <v>42902</v>
@@ -10358,7 +10361,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <v>42905</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <v>42906</v>
@@ -10522,7 +10525,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <v>42907</v>
@@ -10604,7 +10607,7 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <v>42908</v>
@@ -10686,7 +10689,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <v>42909</v>
@@ -10768,7 +10771,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <v>42912</v>
@@ -10850,7 +10853,7 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <v>42913</v>
@@ -10932,7 +10935,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <v>42914</v>
@@ -11014,7 +11017,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <v>42915</v>
@@ -11096,7 +11099,7 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <v>42916</v>
@@ -11178,7 +11181,7 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <v>42919</v>
@@ -11260,7 +11263,7 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <v>42921</v>
@@ -11342,7 +11345,7 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <v>42922</v>
@@ -11424,7 +11427,7 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <v>42923</v>
@@ -11506,7 +11509,7 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <v>42926</v>
@@ -11588,7 +11591,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
         <v>42927</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>42928</v>
@@ -11752,7 +11755,7 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <v>42929</v>
@@ -11834,7 +11837,7 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <v>42930</v>
@@ -11916,7 +11919,7 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <v>42933</v>
@@ -11998,7 +12001,7 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <v>42934</v>
@@ -12080,7 +12083,7 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>42935</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <v>42936</v>
@@ -12244,7 +12247,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <v>42937</v>
@@ -12326,7 +12329,7 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <v>42940</v>
@@ -12408,7 +12411,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <v>42941</v>
@@ -12490,7 +12493,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <v>42942</v>
@@ -12572,7 +12575,7 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <v>42943</v>
@@ -12654,7 +12657,7 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <v>42944</v>
@@ -12736,7 +12739,7 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <v>42947</v>
@@ -12818,7 +12821,7 @@
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <v>42948</v>
@@ -12900,7 +12903,7 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <v>42949</v>
@@ -12982,7 +12985,7 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <v>42950</v>
@@ -13064,7 +13067,7 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <v>42951</v>
@@ -13146,7 +13149,7 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <v>42954</v>
@@ -13228,7 +13231,7 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <v>42955</v>
@@ -13310,7 +13313,7 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <v>42956</v>
@@ -13392,7 +13395,7 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <v>42957</v>
@@ -13474,7 +13477,7 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <v>42958</v>
@@ -13556,7 +13559,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <v>42961</v>
@@ -13638,7 +13641,7 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <v>42962</v>
@@ -13720,7 +13723,7 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>42963</v>
@@ -13802,7 +13805,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <v>42964</v>
@@ -13884,7 +13887,7 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <v>42965</v>
@@ -13966,7 +13969,7 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <v>42968</v>
@@ -14048,7 +14051,7 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <v>42969</v>
@@ -14130,7 +14133,7 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <v>42970</v>
@@ -14212,7 +14215,7 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <v>42971</v>
@@ -14294,7 +14297,7 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <v>42972</v>
@@ -14376,7 +14379,7 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <v>42975</v>
@@ -14458,7 +14461,7 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <v>42976</v>
@@ -14540,7 +14543,7 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <v>42977</v>
@@ -14622,7 +14625,7 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <v>42978</v>
@@ -14704,7 +14707,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <v>42979</v>
@@ -14786,7 +14789,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <v>42983</v>
@@ -14868,7 +14871,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <v>42984</v>
@@ -14950,7 +14953,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <v>42985</v>
@@ -15032,7 +15035,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <v>42986</v>
@@ -15114,7 +15117,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <v>42989</v>
@@ -15196,7 +15199,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <v>42990</v>
@@ -15278,7 +15281,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <v>42991</v>
@@ -15360,7 +15363,7 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <v>42992</v>
@@ -15442,7 +15445,7 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <v>42993</v>
@@ -15524,7 +15527,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <v>42996</v>
@@ -15606,7 +15609,7 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <v>42997</v>
@@ -15688,7 +15691,7 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <v>42998</v>
@@ -15770,7 +15773,7 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <v>42999</v>
@@ -15852,7 +15855,7 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <v>43000</v>
@@ -15934,7 +15937,7 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <v>43003</v>
@@ -16016,7 +16019,7 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <v>43004</v>
@@ -16098,7 +16101,7 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <v>43005</v>
@@ -16180,7 +16183,7 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <v>43006</v>
@@ -16262,7 +16265,7 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <v>43007</v>
@@ -16344,7 +16347,7 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <v>43010</v>
@@ -16426,7 +16429,7 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <v>43011</v>
@@ -16508,7 +16511,7 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <v>43012</v>
@@ -16590,7 +16593,7 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <v>43013</v>
@@ -16672,7 +16675,7 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <v>43014</v>
@@ -16754,7 +16757,7 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <v>43017</v>
@@ -16836,7 +16839,7 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2">
         <v>43018</v>
@@ -16918,7 +16921,7 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <v>43019</v>
@@ -17000,7 +17003,7 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <v>43020</v>
@@ -17082,7 +17085,7 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <v>43021</v>
@@ -17164,7 +17167,7 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <v>43024</v>
@@ -17246,7 +17249,7 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <v>43025</v>
@@ -17328,7 +17331,7 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <v>43026</v>
@@ -17410,7 +17413,7 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <v>43027</v>
@@ -17492,7 +17495,7 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>43028</v>
@@ -17574,7 +17577,7 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>43031</v>
@@ -17656,7 +17659,7 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>43032</v>
@@ -17738,7 +17741,7 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>43033</v>
@@ -17820,7 +17823,7 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>43034</v>
@@ -17902,7 +17905,7 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>43035</v>
@@ -17984,7 +17987,7 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>43038</v>
@@ -18066,7 +18069,7 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>43039</v>
@@ -18148,7 +18151,7 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>43040</v>
@@ -18230,7 +18233,7 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>43041</v>
@@ -18312,7 +18315,7 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>43042</v>
@@ -18394,7 +18397,7 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>43045</v>
@@ -18476,7 +18479,7 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>43046</v>
@@ -18558,7 +18561,7 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>43047</v>
@@ -18640,7 +18643,7 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>43048</v>
@@ -18722,7 +18725,7 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>43049</v>
@@ -18804,7 +18807,7 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>43052</v>
@@ -18886,7 +18889,7 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>43053</v>
@@ -18968,7 +18971,7 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>43054</v>
@@ -19050,7 +19053,7 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <v>43055</v>
@@ -19132,7 +19135,7 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>43056</v>
@@ -19214,7 +19217,7 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>43059</v>
@@ -19296,7 +19299,7 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>43060</v>
@@ -19378,7 +19381,7 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>43061</v>
@@ -19460,7 +19463,7 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <v>43063</v>
@@ -19542,7 +19545,7 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>43066</v>
@@ -19624,7 +19627,7 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>43067</v>
@@ -19706,7 +19709,7 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>43068</v>
@@ -19788,7 +19791,7 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>43069</v>
@@ -19870,7 +19873,7 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>43070</v>
@@ -19952,7 +19955,7 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>43073</v>
@@ -20034,7 +20037,7 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>43074</v>
@@ -20116,7 +20119,7 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <v>43075</v>
@@ -20198,7 +20201,7 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>43076</v>
@@ -20280,7 +20283,7 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>43077</v>
@@ -20362,7 +20365,7 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>43080</v>
@@ -20444,7 +20447,7 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>43081</v>
@@ -20526,7 +20529,7 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>43082</v>
@@ -20608,7 +20611,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>43083</v>
@@ -20690,7 +20693,7 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>43084</v>
@@ -20772,7 +20775,7 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>43087</v>
@@ -20854,7 +20857,7 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>43088</v>
@@ -20936,7 +20939,7 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>43089</v>
@@ -21018,7 +21021,7 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>43090</v>
@@ -21100,7 +21103,7 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>43091</v>
@@ -21182,7 +21185,7 @@
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <v>43095</v>
@@ -21264,7 +21267,7 @@
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <v>43096</v>
@@ -21346,7 +21349,7 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>43097</v>
@@ -21428,7 +21431,7 @@
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>43098</v>
@@ -21510,7 +21513,7 @@
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>43102</v>
@@ -21592,7 +21595,7 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>43103</v>
@@ -21674,7 +21677,7 @@
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>43104</v>
@@ -21756,7 +21759,7 @@
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>43105</v>
@@ -21838,7 +21841,7 @@
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>43108</v>
@@ -21920,7 +21923,7 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <v>43109</v>
@@ -22002,7 +22005,7 @@
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <v>43110</v>
@@ -22084,7 +22087,7 @@
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>43111</v>
@@ -22166,7 +22169,7 @@
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>43112</v>
@@ -22248,7 +22251,7 @@
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>43116</v>
@@ -22330,7 +22333,7 @@
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>43117</v>
@@ -22412,7 +22415,7 @@
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>43118</v>
@@ -22494,7 +22497,7 @@
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>43119</v>
@@ -22576,7 +22579,7 @@
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>43122</v>
@@ -22658,7 +22661,7 @@
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>43123</v>
@@ -22740,7 +22743,7 @@
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <v>43124</v>
@@ -22822,7 +22825,7 @@
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>43125</v>
@@ -22904,7 +22907,7 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>43126</v>
@@ -22986,7 +22989,7 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>43129</v>
@@ -23068,7 +23071,7 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>43130</v>
@@ -23150,7 +23153,7 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>43131</v>
@@ -23232,7 +23235,7 @@
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>43132</v>
@@ -23314,7 +23317,7 @@
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>43133</v>
@@ -23396,7 +23399,7 @@
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>43136</v>
@@ -23478,7 +23481,7 @@
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>43137</v>
@@ -23560,7 +23563,7 @@
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>43138</v>
@@ -23642,7 +23645,7 @@
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>43139</v>
@@ -23724,7 +23727,7 @@
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>43140</v>
@@ -23806,7 +23809,7 @@
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>43143</v>
@@ -23888,7 +23891,7 @@
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>43144</v>
@@ -23970,7 +23973,7 @@
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>43145</v>
@@ -24052,7 +24055,7 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>43146</v>
@@ -24134,7 +24137,7 @@
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>43147</v>
@@ -24216,7 +24219,7 @@
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>43151</v>
@@ -24298,7 +24301,7 @@
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>43152</v>
@@ -24380,7 +24383,7 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>43153</v>
@@ -24462,7 +24465,7 @@
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>43154</v>
@@ -24544,7 +24547,7 @@
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>43157</v>
@@ -24626,7 +24629,7 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>43158</v>
@@ -24708,7 +24711,7 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>43159</v>
@@ -24790,7 +24793,7 @@
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>43160</v>
@@ -24872,7 +24875,7 @@
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>43161</v>
@@ -24954,7 +24957,7 @@
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>43164</v>
@@ -25036,7 +25039,7 @@
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>43165</v>
@@ -25118,7 +25121,7 @@
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>43166</v>
@@ -25200,7 +25203,7 @@
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>43167</v>
@@ -25282,7 +25285,7 @@
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>43168</v>
@@ -25364,7 +25367,7 @@
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>43171</v>
@@ -25446,7 +25449,7 @@
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>43172</v>
@@ -25528,7 +25531,7 @@
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>43173</v>
@@ -25610,7 +25613,7 @@
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>43174</v>
@@ -25692,7 +25695,7 @@
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>43175</v>
@@ -25774,7 +25777,7 @@
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>43178</v>
@@ -25856,7 +25859,7 @@
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>43179</v>
@@ -25938,7 +25941,7 @@
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>43180</v>
@@ -26020,7 +26023,7 @@
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>43181</v>
@@ -26102,7 +26105,7 @@
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>43182</v>
@@ -26184,7 +26187,7 @@
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>43185</v>
@@ -26266,7 +26269,7 @@
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>43186</v>
@@ -26348,7 +26351,7 @@
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>43187</v>
@@ -26430,7 +26433,7 @@
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>43188</v>
@@ -26512,7 +26515,7 @@
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <v>43192</v>
@@ -26594,7 +26597,7 @@
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <v>43193</v>
@@ -26676,7 +26679,7 @@
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <v>43194</v>
@@ -26758,7 +26761,7 @@
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <v>43195</v>
@@ -26840,7 +26843,7 @@
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <v>43196</v>
@@ -26922,7 +26925,7 @@
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <v>43199</v>
@@ -27004,7 +27007,7 @@
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <v>43200</v>
@@ -27086,7 +27089,7 @@
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <v>43201</v>
@@ -27168,7 +27171,7 @@
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <v>43202</v>
@@ -27250,7 +27253,7 @@
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <v>43203</v>
@@ -27332,7 +27335,7 @@
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
         <v>43206</v>
@@ -27414,7 +27417,7 @@
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <v>43207</v>
@@ -27496,7 +27499,7 @@
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <v>43208</v>
@@ -27578,7 +27581,7 @@
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <v>43209</v>
@@ -27660,7 +27663,7 @@
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <v>43210</v>
@@ -27742,7 +27745,7 @@
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <v>43213</v>
@@ -27824,7 +27827,7 @@
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <v>43214</v>
@@ -27906,7 +27909,7 @@
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <v>43215</v>
@@ -27988,7 +27991,7 @@
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <v>43216</v>
@@ -28070,7 +28073,7 @@
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <v>43217</v>
@@ -28152,7 +28155,7 @@
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <v>43220</v>
@@ -28234,7 +28237,7 @@
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <v>43221</v>
@@ -28316,7 +28319,7 @@
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <v>43222</v>
@@ -28398,7 +28401,7 @@
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <v>43223</v>
@@ -28480,7 +28483,7 @@
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <v>43224</v>
@@ -28562,7 +28565,7 @@
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <v>43227</v>
@@ -28644,7 +28647,7 @@
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <v>43228</v>
@@ -28726,7 +28729,7 @@
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <v>43229</v>
@@ -28808,7 +28811,7 @@
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <v>43230</v>
@@ -28890,7 +28893,7 @@
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <v>43231</v>
@@ -28972,7 +28975,7 @@
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <v>43234</v>
@@ -29054,7 +29057,7 @@
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <v>43235</v>
@@ -29136,7 +29139,7 @@
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <v>43236</v>
@@ -29218,7 +29221,7 @@
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <v>43237</v>
@@ -29300,7 +29303,7 @@
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <v>43238</v>
@@ -29382,7 +29385,7 @@
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <v>43241</v>
@@ -29464,7 +29467,7 @@
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <v>43242</v>
@@ -29546,7 +29549,7 @@
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <v>43243</v>
@@ -29628,7 +29631,7 @@
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <v>43244</v>
@@ -29710,7 +29713,7 @@
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <v>43245</v>
@@ -29792,7 +29795,7 @@
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <v>43249</v>
@@ -29874,7 +29877,7 @@
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2">
         <v>43250</v>
@@ -29956,7 +29959,7 @@
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2">
         <v>43251</v>
@@ -30038,7 +30041,7 @@
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2">
         <v>43252</v>
@@ -30120,7 +30123,7 @@
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2">
         <v>43255</v>
@@ -30202,7 +30205,7 @@
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2">
         <v>43256</v>
@@ -30284,7 +30287,7 @@
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2">
         <v>43257</v>
@@ -30366,7 +30369,7 @@
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2">
         <v>43258</v>
@@ -30448,7 +30451,7 @@
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2">
         <v>43259</v>
@@ -30530,7 +30533,7 @@
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2">
         <v>43262</v>
@@ -30612,7 +30615,7 @@
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2">
         <v>43263</v>
@@ -30694,7 +30697,7 @@
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2">
         <v>43264</v>
@@ -30776,7 +30779,7 @@
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2">
         <v>43265</v>
@@ -30858,7 +30861,7 @@
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2">
         <v>43266</v>
@@ -30940,7 +30943,7 @@
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2">
         <v>43269</v>
@@ -31022,7 +31025,7 @@
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2">
         <v>43270</v>
@@ -31104,7 +31107,7 @@
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2">
         <v>43271</v>
@@ -31186,7 +31189,7 @@
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2">
         <v>43272</v>
@@ -31268,7 +31271,7 @@
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2">
         <v>43273</v>
@@ -31350,7 +31353,7 @@
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2">
         <v>43276</v>
@@ -31432,7 +31435,7 @@
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2">
         <v>43277</v>
@@ -31514,7 +31517,7 @@
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2">
         <v>43278</v>
@@ -31596,7 +31599,7 @@
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2">
         <v>43279</v>
@@ -31678,7 +31681,7 @@
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2">
         <v>43280</v>
@@ -31760,7 +31763,7 @@
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2">
         <v>43283</v>
@@ -31842,7 +31845,7 @@
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2">
         <v>43284</v>
@@ -31924,7 +31927,7 @@
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2">
         <v>43286</v>
@@ -32006,7 +32009,7 @@
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2">
         <v>43287</v>
@@ -32088,7 +32091,7 @@
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2">
         <v>43290</v>
@@ -32170,7 +32173,7 @@
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2">
         <v>43291</v>
@@ -32252,7 +32255,7 @@
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2">
         <v>43292</v>
@@ -32334,7 +32337,7 @@
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2">
         <v>43293</v>
@@ -32416,7 +32419,7 @@
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2">
         <v>43294</v>
@@ -32498,7 +32501,7 @@
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2">
         <v>43297</v>
@@ -32580,7 +32583,7 @@
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2">
         <v>43298</v>
@@ -32662,7 +32665,7 @@
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2">
         <v>43299</v>
@@ -32744,7 +32747,7 @@
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2">
         <v>43300</v>
@@ -32826,7 +32829,7 @@
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2">
         <v>43301</v>
@@ -32908,7 +32911,7 @@
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2">
         <v>43304</v>
@@ -32990,7 +32993,7 @@
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2">
         <v>43305</v>
@@ -33072,7 +33075,7 @@
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2">
         <v>43306</v>
@@ -33154,7 +33157,7 @@
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2">
         <v>43307</v>
@@ -33236,7 +33239,7 @@
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2">
         <v>43308</v>
@@ -33318,7 +33321,7 @@
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2">
         <v>43311</v>
@@ -33400,7 +33403,7 @@
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2">
         <v>43312</v>
@@ -33482,7 +33485,7 @@
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2">
         <v>43313</v>
@@ -33564,7 +33567,7 @@
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2">
         <v>43314</v>
@@ -33646,7 +33649,7 @@
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2">
         <v>43315</v>
@@ -33728,7 +33731,7 @@
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2">
         <v>43318</v>
@@ -33810,7 +33813,7 @@
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2">
         <v>43319</v>
@@ -33892,7 +33895,7 @@
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2">
         <v>43320</v>
@@ -33974,7 +33977,7 @@
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2">
         <v>43321</v>
@@ -34056,7 +34059,7 @@
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2">
         <v>43322</v>
@@ -34138,7 +34141,7 @@
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2">
         <v>43325</v>
@@ -34220,7 +34223,7 @@
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2">
         <v>43326</v>
@@ -34302,7 +34305,7 @@
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2">
         <v>43327</v>
@@ -34384,7 +34387,7 @@
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2">
         <v>43328</v>
@@ -34466,7 +34469,7 @@
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2">
         <v>43329</v>
@@ -34548,7 +34551,7 @@
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2">
         <v>43332</v>
@@ -34630,7 +34633,7 @@
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2">
         <v>43333</v>
@@ -34712,7 +34715,7 @@
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2">
         <v>43334</v>
@@ -34794,7 +34797,7 @@
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2">
         <v>43335</v>
@@ -34876,7 +34879,7 @@
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2">
         <v>43336</v>
@@ -34958,7 +34961,7 @@
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2">
         <v>43339</v>
@@ -35040,7 +35043,7 @@
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2">
         <v>43340</v>
@@ -35122,7 +35125,7 @@
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2">
         <v>43341</v>
@@ -35204,7 +35207,7 @@
     </row>
     <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2">
         <v>43342</v>
@@ -35286,7 +35289,7 @@
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2">
         <v>43343</v>
@@ -35368,7 +35371,7 @@
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="2">
         <v>43347</v>
@@ -35450,7 +35453,7 @@
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="2">
         <v>43348</v>
@@ -35532,7 +35535,7 @@
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="2">
         <v>43349</v>
@@ -35614,7 +35617,7 @@
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="2">
         <v>43350</v>
@@ -35696,7 +35699,7 @@
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="2">
         <v>43353</v>
@@ -35778,7 +35781,7 @@
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="2">
         <v>43354</v>
@@ -35860,7 +35863,7 @@
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="2">
         <v>43355</v>
@@ -35942,7 +35945,7 @@
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="2">
         <v>43356</v>
@@ -36024,7 +36027,7 @@
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="2">
         <v>43357</v>
@@ -36106,7 +36109,7 @@
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="2">
         <v>43360</v>
@@ -36188,7 +36191,7 @@
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="2">
         <v>43361</v>
@@ -36270,7 +36273,7 @@
     </row>
     <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="2">
         <v>43362</v>
@@ -36352,7 +36355,7 @@
     </row>
     <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="2">
         <v>43363</v>
@@ -36434,7 +36437,7 @@
     </row>
     <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="2">
         <v>43364</v>
@@ -36516,7 +36519,7 @@
     </row>
     <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="2">
         <v>43367</v>
@@ -36598,7 +36601,7 @@
     </row>
     <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="2">
         <v>43368</v>
@@ -36680,7 +36683,7 @@
     </row>
     <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="2">
         <v>43369</v>
@@ -36762,7 +36765,7 @@
     </row>
     <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="2">
         <v>43370</v>
@@ -36844,7 +36847,7 @@
     </row>
     <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="2">
         <v>43371</v>
@@ -36926,7 +36929,7 @@
     </row>
     <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="2">
         <v>43374</v>
@@ -37008,7 +37011,7 @@
     </row>
     <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="2">
         <v>43375</v>
@@ -37090,7 +37093,7 @@
     </row>
     <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="2">
         <v>43376</v>
@@ -37172,7 +37175,7 @@
     </row>
     <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="2">
         <v>43377</v>
@@ -37254,7 +37257,7 @@
     </row>
     <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="2">
         <v>43378</v>
@@ -37336,7 +37339,7 @@
     </row>
     <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="2">
         <v>43381</v>
@@ -37418,7 +37421,7 @@
     </row>
     <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="2">
         <v>43382</v>
@@ -37500,7 +37503,7 @@
     </row>
     <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="2">
         <v>43383</v>
@@ -37582,7 +37585,7 @@
     </row>
     <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="2">
         <v>43384</v>
@@ -37664,7 +37667,7 @@
     </row>
     <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="2">
         <v>43385</v>
@@ -37746,7 +37749,7 @@
     </row>
     <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="2">
         <v>43388</v>
@@ -37828,7 +37831,7 @@
     </row>
     <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="2">
         <v>43389</v>
@@ -37910,7 +37913,7 @@
     </row>
     <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="2">
         <v>43390</v>
@@ -37992,7 +37995,7 @@
     </row>
     <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="2">
         <v>43391</v>
@@ -38074,7 +38077,7 @@
     </row>
     <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="2">
         <v>43392</v>
@@ -38156,7 +38159,7 @@
     </row>
     <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="2">
         <v>43395</v>
@@ -38238,7 +38241,7 @@
     </row>
     <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="2">
         <v>43396</v>
@@ -38320,7 +38323,7 @@
     </row>
     <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="2">
         <v>43397</v>
@@ -38402,7 +38405,7 @@
     </row>
     <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="2">
         <v>43398</v>
@@ -38484,7 +38487,7 @@
     </row>
     <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="2">
         <v>43399</v>
@@ -38566,7 +38569,7 @@
     </row>
     <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="2">
         <v>43402</v>
@@ -38648,7 +38651,7 @@
     </row>
     <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="2">
         <v>43403</v>
@@ -38730,7 +38733,7 @@
     </row>
     <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="2">
         <v>43404</v>
@@ -38812,7 +38815,7 @@
     </row>
     <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="2">
         <v>43405</v>
@@ -38894,7 +38897,7 @@
     </row>
     <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="2">
         <v>43406</v>
@@ -38976,7 +38979,7 @@
     </row>
     <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="2">
         <v>43409</v>
@@ -39058,7 +39061,7 @@
     </row>
     <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="2">
         <v>43410</v>
@@ -39140,7 +39143,7 @@
     </row>
     <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="2">
         <v>43411</v>
@@ -39222,7 +39225,7 @@
     </row>
     <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="2">
         <v>43412</v>
@@ -39304,7 +39307,7 @@
     </row>
     <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="2">
         <v>43413</v>
@@ -39386,7 +39389,7 @@
     </row>
     <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="2">
         <v>43416</v>
@@ -39468,7 +39471,7 @@
     </row>
     <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="2">
         <v>43417</v>
@@ -39550,7 +39553,7 @@
     </row>
     <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="2">
         <v>43418</v>
@@ -39632,7 +39635,7 @@
     </row>
     <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="2">
         <v>43419</v>
@@ -39714,7 +39717,7 @@
     </row>
     <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="2">
         <v>43420</v>
@@ -39796,7 +39799,7 @@
     </row>
     <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="2">
         <v>43423</v>
@@ -39878,7 +39881,7 @@
     </row>
     <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="2">
         <v>43424</v>
@@ -39960,7 +39963,7 @@
     </row>
     <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="2">
         <v>43425</v>
@@ -40042,7 +40045,7 @@
     </row>
     <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="2">
         <v>43427</v>
@@ -40124,7 +40127,7 @@
     </row>
     <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="2">
         <v>43430</v>
@@ -40206,7 +40209,7 @@
     </row>
     <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="2">
         <v>43431</v>
@@ -40288,7 +40291,7 @@
     </row>
     <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="2">
         <v>43432</v>
@@ -40370,7 +40373,7 @@
     </row>
     <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="2">
         <v>43433</v>
@@ -40452,7 +40455,7 @@
     </row>
     <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="2">
         <v>43434</v>
@@ -40534,7 +40537,7 @@
     </row>
     <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="2">
         <v>43437</v>
@@ -40616,7 +40619,7 @@
     </row>
     <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="2">
         <v>43438</v>
@@ -40698,7 +40701,7 @@
     </row>
     <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="2">
         <v>43440</v>
@@ -40780,7 +40783,7 @@
     </row>
     <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="2">
         <v>43441</v>
@@ -40862,7 +40865,7 @@
     </row>
     <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="2">
         <v>43444</v>
@@ -40944,7 +40947,7 @@
     </row>
     <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="2">
         <v>43445</v>
@@ -41026,7 +41029,7 @@
     </row>
     <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="2">
         <v>43446</v>
@@ -41108,7 +41111,7 @@
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="2">
         <v>43447</v>
@@ -41190,7 +41193,7 @@
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="2">
         <v>43448</v>
@@ -41272,7 +41275,7 @@
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="2">
         <v>43451</v>
@@ -41354,7 +41357,7 @@
     </row>
     <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="2">
         <v>43452</v>
@@ -41436,7 +41439,7 @@
     </row>
     <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2">
         <v>43453</v>
@@ -41518,7 +41521,7 @@
     </row>
     <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="2">
         <v>43454</v>
@@ -41600,7 +41603,7 @@
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2">
         <v>43455</v>
@@ -41682,7 +41685,7 @@
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2">
         <v>43458</v>
@@ -41764,7 +41767,7 @@
     </row>
     <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="2">
         <v>43460</v>
@@ -41846,7 +41849,7 @@
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="2">
         <v>43461</v>
@@ -41928,7 +41931,7 @@
     </row>
     <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2">
         <v>43462</v>
@@ -42010,7 +42013,7 @@
     </row>
     <row r="503" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2">
         <v>43465</v>

--- a/tests/indicators/a-d/Adx/Adx.Calc.xlsx
+++ b/tests/indicators/a-d/Adx/Adx.Calc.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D8B8F-9F53-4B0A-A856-4006463BEA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3415FB2C-712A-4184-A87B-956C4B37A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36480" yWindow="0" windowWidth="28800" windowHeight="21690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADX" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -607,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1549,22 +1540,22 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="12" max="16" width="9.140625" style="7"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="5" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="7"/>
-    <col min="23" max="23" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="12" max="16" width="9.1796875" style="7"/>
+    <col min="17" max="17" width="3.7265625" customWidth="1"/>
+    <col min="18" max="18" width="8.1796875" style="5" customWidth="1"/>
+    <col min="19" max="21" width="9.1796875" style="7"/>
+    <col min="23" max="23" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -1635,7 +1626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1674,7 +1665,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1722,7 +1713,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1770,7 +1761,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1818,7 +1809,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1866,7 +1857,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1914,7 +1905,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1962,7 +1953,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2010,7 +2001,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2058,7 +2049,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2106,7 +2097,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2154,7 +2145,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2202,7 +2193,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2250,7 +2241,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2298,7 +2289,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2368,7 +2359,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2438,7 +2429,7 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2508,7 +2499,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2578,7 +2569,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2648,7 +2639,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2696,7 +2687,7 @@
         <f>100*testdata[[#This Row],[-DM14]]/testdata[[#This Row],[TR14]]</f>
         <v>25.012425579421205</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="11">
         <f>100*ABS(testdata[[#This Row],[+DI14]]-testdata[[#This Row],[-DI14]])/(testdata[[#This Row],[+DI14]]+testdata[[#This Row],[-DI14]])</f>
         <v>8.6351139279442961</v>
       </c>
@@ -2718,7 +2709,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2788,7 +2779,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2858,7 +2849,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2928,7 +2919,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2998,7 +2989,7 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -3068,7 +3059,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3138,7 +3129,7 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -3208,7 +3199,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -3285,7 +3276,7 @@
       </c>
       <c r="Y29" s="13"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -3362,7 +3353,7 @@
       </c>
       <c r="Y30" s="6"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -3410,7 +3401,7 @@
         <f>100*testdata[[#This Row],[-DM14]]/testdata[[#This Row],[TR14]]</f>
         <v>14.165829841353299</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="11">
         <f>100*ABS(testdata[[#This Row],[+DI14]]-testdata[[#This Row],[-DI14]])/(testdata[[#This Row],[+DI14]]+testdata[[#This Row],[-DI14]])</f>
         <v>45.659962116806589</v>
       </c>
@@ -3439,7 +3430,7 @@
       </c>
       <c r="Y31" s="11"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -3516,7 +3507,7 @@
       </c>
       <c r="Y32" s="6"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -3593,7 +3584,7 @@
       </c>
       <c r="Y33" s="6"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -3670,7 +3661,7 @@
       </c>
       <c r="Y34" s="6"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -3747,7 +3738,7 @@
       </c>
       <c r="Y35" s="6"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -3824,7 +3815,7 @@
       </c>
       <c r="Y36" s="6"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -3901,7 +3892,7 @@
       </c>
       <c r="Y37" s="6"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -3978,7 +3969,7 @@
       </c>
       <c r="Y38" s="6"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -4055,7 +4046,7 @@
       </c>
       <c r="Y39" s="6"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -4132,7 +4123,7 @@
       </c>
       <c r="Y40" s="6"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -4209,7 +4200,7 @@
       </c>
       <c r="Y41" s="6"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -4291,7 +4282,7 @@
         <v>29.1061924422517</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -4373,7 +4364,7 @@
         <v>30.612091066317898</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -4455,7 +4446,7 @@
         <v>31.742940902605799</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -4537,7 +4528,7 @@
         <v>32.910704164193803</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -4619,7 +4610,7 @@
         <v>33.800668233057998</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -4701,7 +4692,7 @@
         <v>34.282530871755498</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -4783,7 +4774,7 @@
         <v>35.203773847973203</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -4865,7 +4856,7 @@
         <v>36.059213754461098</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -4947,7 +4938,7 @@
         <v>36.365003212984099</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -5029,7 +5020,7 @@
         <v>37.142611710382397</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -5111,7 +5102,7 @@
         <v>37.952532158976197</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -5193,7 +5184,7 @@
         <v>38.4561721826583</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -5275,7 +5266,7 @@
         <v>39.044472480502797</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -5357,7 +5348,7 @@
         <v>38.805876785297102</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -5439,7 +5430,7 @@
         <v>38.471016752236899</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -5521,7 +5512,7 @@
         <v>37.4997691385419</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -5603,7 +5594,7 @@
         <v>36.665467018523003</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -5685,7 +5676,7 @@
         <v>36.079144579880399</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -5767,7 +5758,7 @@
         <v>34.551715527415404</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -5849,7 +5840,7 @@
         <v>33.344820747917403</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -5931,7 +5922,7 @@
         <v>32.366541473105897</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -6013,7 +6004,7 @@
         <v>30.914364787662802</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -6095,7 +6086,7 @@
         <v>30.357705712508601</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -6177,7 +6168,7 @@
         <v>29.840807999865401</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -6259,7 +6250,7 @@
         <v>29.172918215714301</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -6341,7 +6332,7 @@
         <v>28.1491072195229</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -6423,7 +6414,7 @@
         <v>26.504759350980599</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -6505,7 +6496,7 @@
         <v>25.231445672096498</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -6587,7 +6578,7 @@
         <v>23.7548435583547</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -6669,7 +6660,7 @@
         <v>22.5885590108646</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -6751,7 +6742,7 @@
         <v>22.295802015566402</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -6833,7 +6824,7 @@
         <v>21.349036701747899</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -6915,7 +6906,7 @@
         <v>20.4698974817737</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -6997,7 +6988,7 @@
         <v>19.577440110008901</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -7079,7 +7070,7 @@
         <v>18.364523548171501</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -7161,7 +7152,7 @@
         <v>17.4385494803442</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -7243,7 +7234,7 @@
         <v>17.329884510539799</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -7325,7 +7316,7 @@
         <v>17.4648063151473</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -7407,7 +7398,7 @@
         <v>17.682948149028899</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -7489,7 +7480,7 @@
         <v>17.7100214417076</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -7571,7 +7562,7 @@
         <v>17.799489278081499</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -7653,7 +7644,7 @@
         <v>17.915875466956699</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -7735,7 +7726,7 @@
         <v>18.023948356626502</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -7817,7 +7808,7 @@
         <v>18.1939708200286</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -7899,7 +7890,7 @@
         <v>18.333775819821199</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -7981,7 +7972,7 @@
         <v>18.729992570185601</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -8063,7 +8054,7 @@
         <v>18.943293212509801</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -8145,7 +8136,7 @@
         <v>18.845526482244999</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -8227,7 +8218,7 @@
         <v>18.754743089856301</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -8309,7 +8300,7 @@
         <v>18.760152884100101</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -8391,7 +8382,7 @@
         <v>19.1669628391214</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -8473,7 +8464,7 @@
         <v>20.081985790329501</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -8555,7 +8546,7 @@
         <v>20.836070292675601</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -8637,7 +8628,7 @@
         <v>21.073811681227099</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -8719,7 +8710,7 @@
         <v>21.455839944231698</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -8801,7 +8792,7 @@
         <v>21.2716280780853</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -8883,7 +8874,7 @@
         <v>20.5940638953319</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -8965,7 +8956,7 @@
         <v>20.167656670205499</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -9047,7 +9038,7 @@
         <v>20.199714171617</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -9129,7 +9120,7 @@
         <v>20.696337137899501</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -9211,7 +9202,7 @@
         <v>21.245861567937698</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -9293,7 +9284,7 @@
         <v>21.6262416569778</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -9375,7 +9366,7 @@
         <v>21.085307012226501</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -9457,7 +9448,7 @@
         <v>21.049995180387899</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -9539,7 +9530,7 @@
         <v>21.672467470452801</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -9621,7 +9612,7 @@
         <v>22.330384769091701</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -9703,7 +9694,7 @@
         <v>22.191305661936902</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -9785,7 +9776,7 @@
         <v>22.017220872573901</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -9867,7 +9858,7 @@
         <v>21.448871413869199</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -9949,7 +9940,7 @@
         <v>20.1916776939816</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -10031,7 +10022,7 @@
         <v>19.208650730890302</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -10113,7 +10104,7 @@
         <v>18.876123557151701</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -10195,7 +10186,7 @@
         <v>18.8323775209107</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -10277,7 +10268,7 @@
         <v>18.384938741852299</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -10359,7 +10350,7 @@
         <v>17.880924714904499</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -10441,7 +10432,7 @@
         <v>17.8257912322909</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -10523,7 +10514,7 @@
         <v>18.021104841539</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -10605,7 +10596,7 @@
         <v>18.204445089235399</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -10687,7 +10678,7 @@
         <v>18.374689604953399</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -10769,7 +10760,7 @@
         <v>18.1374786511679</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -10851,7 +10842,7 @@
         <v>18.105568195448399</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -10933,7 +10924,7 @@
         <v>17.760763803450999</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -11015,7 +11006,7 @@
         <v>16.7507030014878</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -11097,7 +11088,7 @@
         <v>16.542459502739199</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -11179,7 +11170,7 @@
         <v>16.767764871704099</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -11261,7 +11252,7 @@
         <v>16.556801427059099</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -11343,7 +11334,7 @@
         <v>16.113631331442001</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -11425,7 +11416,7 @@
         <v>16.120742708005</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -11507,7 +11498,7 @@
         <v>16.6599037100797</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -11589,7 +11580,7 @@
         <v>16.705822336562999</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -11671,7 +11662,7 @@
         <v>16.7628409089901</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -11753,7 +11744,7 @@
         <v>16.150396947228401</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -11835,7 +11826,7 @@
         <v>15.3720936341465</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -11917,7 +11908,7 @@
         <v>15.207804271541301</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -11999,7 +11990,7 @@
         <v>14.607823509938299</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -12081,7 +12072,7 @@
         <v>13.6711197999911</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -12163,7 +12154,7 @@
         <v>13.937102595633201</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -12245,7 +12236,7 @@
         <v>14.305698275808799</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -12327,7 +12318,7 @@
         <v>14.243953693353401</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -12409,7 +12400,7 @@
         <v>14.366568041736301</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -12491,7 +12482,7 @@
         <v>15.1203531340515</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -12573,7 +12564,7 @@
         <v>15.691984664705901</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -12655,7 +12646,7 @@
         <v>15.3449938541245</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -12737,7 +12728,7 @@
         <v>15.285300670218</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -12819,7 +12810,7 @@
         <v>14.727913284457699</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -12901,7 +12892,7 @@
         <v>14.090988831051201</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -12983,7 +12974,7 @@
         <v>13.561939402961</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -13065,7 +13056,7 @@
         <v>13.070679219734499</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -13147,7 +13138,7 @@
         <v>12.5772595112294</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -13229,7 +13220,7 @@
         <v>12.5596040027716</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -13311,7 +13302,7 @@
         <v>13.110921462571101</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>151</v>
       </c>
@@ -13393,7 +13384,7 @@
         <v>13.062343953195899</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -13475,7 +13466,7 @@
         <v>13.252946001101799</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>153</v>
       </c>
@@ -13557,7 +13548,7 @@
         <v>13.692593498654</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>154</v>
       </c>
@@ -13639,7 +13630,7 @@
         <v>13.699636441906801</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>155</v>
       </c>
@@ -13721,7 +13712,7 @@
         <v>13.1356829936324</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>156</v>
       </c>
@@ -13803,7 +13794,7 @@
         <v>12.8108158536141</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>157</v>
       </c>
@@ -13885,7 +13876,7 @@
         <v>12.816410100620899</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>158</v>
       </c>
@@ -13967,7 +13958,7 @@
         <v>13.044485021236101</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>159</v>
       </c>
@@ -14049,7 +14040,7 @@
         <v>13.1763539087168</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>160</v>
       </c>
@@ -14131,7 +14122,7 @@
         <v>12.479310573888</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>161</v>
       </c>
@@ -14213,7 +14204,7 @@
         <v>12.0434436761443</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>162</v>
       </c>
@@ -14295,7 +14286,7 @@
         <v>11.7950640075442</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>163</v>
       </c>
@@ -14377,7 +14368,7 @@
         <v>11.8679599910823</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>164</v>
       </c>
@@ -14459,7 +14450,7 @@
         <v>11.5901761420778</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>165</v>
       </c>
@@ -14541,7 +14532,7 @@
         <v>11.895316982337601</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>166</v>
       </c>
@@ -14623,7 +14614,7 @@
         <v>11.7665845155101</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>167</v>
       </c>
@@ -14705,7 +14696,7 @@
         <v>11.453332262058799</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>168</v>
       </c>
@@ -14787,7 +14778,7 @@
         <v>11.386578842492</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>169</v>
       </c>
@@ -14869,7 +14860,7 @@
         <v>11.3865920698675</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>170</v>
       </c>
@@ -14951,7 +14942,7 @@
         <v>11.530429165428901</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>171</v>
       </c>
@@ -15033,7 +15024,7 @@
         <v>11.8785112450217</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>172</v>
       </c>
@@ -15115,7 +15106,7 @@
         <v>12.316903208731601</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>173</v>
       </c>
@@ -15197,7 +15188,7 @@
         <v>11.879291358187199</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>174</v>
       </c>
@@ -15279,7 +15270,7 @@
         <v>11.6775344168566</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>175</v>
       </c>
@@ -15361,7 +15352,7 @@
         <v>11.642109123715301</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>176</v>
       </c>
@@ -15443,7 +15434,7 @@
         <v>11.498276887877999</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>177</v>
       </c>
@@ -15525,7 +15516,7 @@
         <v>11.5180480427939</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>178</v>
       </c>
@@ -15607,7 +15598,7 @@
         <v>12.1146615703083</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>179</v>
       </c>
@@ -15689,7 +15680,7 @@
         <v>12.2565823130744</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>180</v>
       </c>
@@ -15771,7 +15762,7 @@
         <v>12.2678793832705</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>181</v>
       </c>
@@ -15853,7 +15844,7 @@
         <v>12.4294502367413</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>182</v>
       </c>
@@ -15935,7 +15926,7 @@
         <v>12.361304498200401</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>183</v>
       </c>
@@ -16017,7 +16008,7 @@
         <v>11.866143483161499</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>184</v>
       </c>
@@ -16099,7 +16090,7 @@
         <v>11.467767805282801</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>185</v>
       </c>
@@ -16181,7 +16172,7 @@
         <v>11.445273740109201</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>186</v>
       </c>
@@ -16263,7 +16254,7 @@
         <v>11.3991893073767</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>187</v>
       </c>
@@ -16345,7 +16336,7 @@
         <v>11.8936194473648</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>188</v>
       </c>
@@ -16427,7 +16418,7 @@
         <v>12.7062609107585</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>189</v>
       </c>
@@ -16509,7 +16500,7 @@
         <v>13.6572585725811</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>190</v>
       </c>
@@ -16591,7 +16582,7 @@
         <v>14.747016123276699</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>191</v>
       </c>
@@ -16673,7 +16664,7 @@
         <v>16.282048374839999</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>192</v>
       </c>
@@ -16755,7 +16746,7 @@
         <v>17.712003983233199</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>193</v>
       </c>
@@ -16837,7 +16828,7 @@
         <v>18.5918000980394</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>194</v>
       </c>
@@ -16919,7 +16910,7 @@
         <v>19.498445742313798</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
         <v>195</v>
       </c>
@@ -17001,7 +16992,7 @@
         <v>20.2589605402109</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>196</v>
       </c>
@@ -17083,7 +17074,7 @@
         <v>20.544887992854999</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>197</v>
       </c>
@@ -17165,7 +17156,7 @@
         <v>20.932015121038699</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>198</v>
       </c>
@@ -17247,7 +17238,7 @@
         <v>21.681003499998699</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>199</v>
       </c>
@@ -17329,7 +17320,7 @@
         <v>22.379617101271698</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>200</v>
       </c>
@@ -17411,7 +17402,7 @@
         <v>23.488704368278199</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
         <v>201</v>
       </c>
@@ -17493,7 +17484,7 @@
         <v>23.8833827363759</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>202</v>
       </c>
@@ -17575,7 +17566,7 @@
         <v>24.870522999988498</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
         <v>203</v>
       </c>
@@ -17657,7 +17648,7 @@
         <v>26.040624648346299</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>204</v>
       </c>
@@ -17739,7 +17730,7 @@
         <v>27.419787398359698</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
         <v>205</v>
       </c>
@@ -17821,7 +17812,7 @@
         <v>27.407198372818101</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>206</v>
       </c>
@@ -17903,7 +17894,7 @@
         <v>27.260156916497198</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
         <v>207</v>
       </c>
@@ -17985,7 +17976,7 @@
         <v>27.811560559992301</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>208</v>
       </c>
@@ -18067,7 +18058,7 @@
         <v>28.323578228952101</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
         <v>209</v>
       </c>
@@ -18149,7 +18140,7 @@
         <v>28.810641176833901</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
         <v>210</v>
       </c>
@@ -18231,7 +18222,7 @@
         <v>29.654156738617399</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>211</v>
       </c>
@@ -18313,7 +18304,7 @@
         <v>30.012186955780201</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
         <v>212</v>
       </c>
@@ -18395,7 +18386,7 @@
         <v>30.6023842791951</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>213</v>
       </c>
@@ -18477,7 +18468,7 @@
         <v>31.4350163904464</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>214</v>
       </c>
@@ -18559,7 +18550,7 @@
         <v>31.3571049186111</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>215</v>
       </c>
@@ -18641,7 +18632,7 @@
         <v>31.7406383790298</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
         <v>216</v>
       </c>
@@ -18723,7 +18714,7 @@
         <v>31.238266851310399</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>217</v>
       </c>
@@ -18805,7 +18796,7 @@
         <v>30.771779004142399</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
         <v>218</v>
       </c>
@@ -18887,7 +18878,7 @@
         <v>29.168230146264602</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>219</v>
       </c>
@@ -18969,7 +18960,7 @@
         <v>27.3320785577477</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>220</v>
       </c>
@@ -19051,7 +19042,7 @@
         <v>26.600198382884098</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>221</v>
       </c>
@@ -19133,7 +19124,7 @@
         <v>25.899312218927399</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
         <v>222</v>
       </c>
@@ -19215,7 +19206,7 @@
         <v>25.248489352396099</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>223</v>
       </c>
@@ -19297,7 +19288,7 @@
         <v>24.975190286153602</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>224</v>
       </c>
@@ -19379,7 +19370,7 @@
         <v>24.797327877659001</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A227" s="4">
         <v>225</v>
       </c>
@@ -19461,7 +19452,7 @@
         <v>24.886786227867599</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
         <v>226</v>
       </c>
@@ -19543,7 +19534,7 @@
         <v>25.231215737617799</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
         <v>227</v>
       </c>
@@ -19625,7 +19616,7 @@
         <v>25.743601967571902</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>228</v>
       </c>
@@ -19707,7 +19698,7 @@
         <v>26.763867884306698</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
         <v>229</v>
       </c>
@@ -19789,7 +19780,7 @@
         <v>26.889232646338399</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>230</v>
       </c>
@@ -19871,7 +19862,7 @@
         <v>27.378564049755699</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
         <v>231</v>
       </c>
@@ -19953,7 +19944,7 @@
         <v>26.722578457910199</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>232</v>
       </c>
@@ -20035,7 +20026,7 @@
         <v>26.0433872363791</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
         <v>233</v>
       </c>
@@ -20117,7 +20108,7 @@
         <v>25.432565694878299</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>234</v>
       </c>
@@ -20199,7 +20190,7 @@
         <v>24.736998515986201</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>235</v>
       </c>
@@ -20281,7 +20272,7 @@
         <v>24.240650205704</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>236</v>
       </c>
@@ -20363,7 +20354,7 @@
         <v>23.9990279894261</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>237</v>
       </c>
@@ -20445,7 +20436,7 @@
         <v>24.503548672513901</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>238</v>
       </c>
@@ -20527,7 +20518,7 @@
         <v>25.134537340839</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
         <v>239</v>
       </c>
@@ -20609,7 +20600,7 @@
         <v>25.865718685452102</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
         <v>240</v>
       </c>
@@ -20691,7 +20682,7 @@
         <v>26.2121296786252</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>241</v>
       </c>
@@ -20773,7 +20764,7 @@
         <v>27.306221620894199</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
         <v>242</v>
       </c>
@@ -20855,7 +20846,7 @@
         <v>28.7289945657628</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>243</v>
       </c>
@@ -20937,7 +20928,7 @@
         <v>30.081878929691499</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
         <v>244</v>
       </c>
@@ -21019,7 +21010,7 @@
         <v>29.953416350638701</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>245</v>
       </c>
@@ -21101,7 +21092,7 @@
         <v>30.122000749080701</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
         <v>246</v>
       </c>
@@ -21183,7 +21174,7 @@
         <v>29.764326961141901</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>247</v>
       </c>
@@ -21265,7 +21256,7 @@
         <v>29.316410221164901</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
         <v>248</v>
       </c>
@@ -21313,7 +21304,7 @@
         <f>100*testdata[[#This Row],[-DM14]]/testdata[[#This Row],[TR14]]</f>
         <v>18.247083794191962</v>
       </c>
-      <c r="N250" s="6">
+      <c r="N250" s="11">
         <f>100*ABS(testdata[[#This Row],[+DI14]]-testdata[[#This Row],[-DI14]])/(testdata[[#This Row],[+DI14]]+testdata[[#This Row],[-DI14]])</f>
         <v>27.825450922906132</v>
       </c>
@@ -21347,7 +21338,7 @@
         <v>29.125166308423101</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>249</v>
       </c>
@@ -21429,7 +21420,7 @@
         <v>29.2164317967156</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>250</v>
       </c>
@@ -21511,7 +21502,7 @@
         <v>29.079359374489599</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A253" s="4">
         <v>251</v>
       </c>
@@ -21593,7 +21584,7 @@
         <v>29.1949732270187</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A254" s="4">
         <v>252</v>
       </c>
@@ -21675,7 +21666,7 @@
         <v>29.833025880740301</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A255" s="4">
         <v>253</v>
       </c>
@@ -21757,7 +21748,7 @@
         <v>30.321430073304999</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A256" s="4">
         <v>254</v>
       </c>
@@ -21839,7 +21830,7 @@
         <v>31.241288391566101</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A257" s="4">
         <v>255</v>
       </c>
@@ -21921,7 +21912,7 @@
         <v>32.442144175962397</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A258" s="4">
         <v>256</v>
       </c>
@@ -22003,7 +21994,7 @@
         <v>33.380723590489403</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A259" s="4">
         <v>257</v>
       </c>
@@ -22085,7 +22076,7 @@
         <v>33.576693497222898</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A260" s="4">
         <v>258</v>
       </c>
@@ -22167,7 +22158,7 @@
         <v>34.039171782289998</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A261" s="4">
         <v>259</v>
       </c>
@@ -22249,7 +22240,7 @@
         <v>34.5633153964095</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A262" s="4">
         <v>260</v>
       </c>
@@ -22331,7 +22322,7 @@
         <v>35.243272783614103</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A263" s="4">
         <v>261</v>
       </c>
@@ -22413,7 +22404,7 @@
         <v>35.9498050617091</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A264" s="4">
         <v>262</v>
       </c>
@@ -22495,7 +22486,7 @@
         <v>36.655447226794401</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A265" s="4">
         <v>263</v>
       </c>
@@ -22577,7 +22568,7 @@
         <v>36.978448067860199</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A266" s="4">
         <v>264</v>
       </c>
@@ -22659,7 +22650,7 @@
         <v>37.571222731222598</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A267" s="4">
         <v>265</v>
       </c>
@@ -22741,7 +22732,7 @@
         <v>38.683797841457</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A268" s="4">
         <v>266</v>
       </c>
@@ -22823,7 +22814,7 @@
         <v>40.108469578976297</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A269" s="4">
         <v>267</v>
       </c>
@@ -22905,7 +22896,7 @@
         <v>41.669773300721502</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A270" s="4">
         <v>268</v>
       </c>
@@ -22987,7 +22978,7 @@
         <v>43.355401407904203</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A271" s="4">
         <v>269</v>
       </c>
@@ -23069,7 +23060,7 @@
         <v>45.0853097599989</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A272" s="4">
         <v>270</v>
       </c>
@@ -23151,7 +23142,7 @@
         <v>44.8302113134135</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A273" s="4">
         <v>271</v>
       </c>
@@ -23233,7 +23224,7 @@
         <v>44.682997203934796</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A274" s="4">
         <v>272</v>
       </c>
@@ -23315,7 +23306,7 @@
         <v>44.800202646040198</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A275" s="4">
         <v>273</v>
       </c>
@@ -23397,7 +23388,7 @@
         <v>43.949283404165698</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A276" s="4">
         <v>274</v>
       </c>
@@ -23479,7 +23470,7 @@
         <v>44.595460482788901</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A277" s="4">
         <v>275</v>
       </c>
@@ -23561,7 +23552,7 @@
         <v>45.489532518218297</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A278" s="4">
         <v>276</v>
       </c>
@@ -23643,7 +23634,7 @@
         <v>45.917445996110096</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A279" s="4">
         <v>277</v>
       </c>
@@ -23725,7 +23716,7 @@
         <v>47.073628957847298</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A280" s="4">
         <v>278</v>
       </c>
@@ -23807,7 +23798,7 @@
         <v>48.402261377820203</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A281" s="4">
         <v>279</v>
       </c>
@@ -23889,7 +23880,7 @@
         <v>49.253150487665899</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A282" s="4">
         <v>280</v>
       </c>
@@ -23971,7 +23962,7 @@
         <v>50.043261803951097</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A283" s="4">
         <v>281</v>
       </c>
@@ -24053,7 +24044,7 @@
         <v>50.482810002419299</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A284" s="4">
         <v>282</v>
       </c>
@@ -24135,7 +24126,7 @@
         <v>50.524515847224599</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A285" s="4">
         <v>283</v>
       </c>
@@ -24217,7 +24208,7 @@
         <v>48.9727311126397</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A286" s="4">
         <v>284</v>
       </c>
@@ -24299,7 +24290,7 @@
         <v>47.489243388807999</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A287" s="4">
         <v>285</v>
       </c>
@@ -24381,7 +24372,7 @@
         <v>45.988055235207099</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A288" s="4">
         <v>286</v>
       </c>
@@ -24463,7 +24454,7 @@
         <v>43.458459724148398</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A289" s="4">
         <v>287</v>
       </c>
@@ -24545,7 +24536,7 @@
         <v>42.336710251636497</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A290" s="4">
         <v>288</v>
       </c>
@@ -24627,7 +24618,7 @@
         <v>41.204624480284501</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A291" s="4">
         <v>289</v>
       </c>
@@ -24709,7 +24700,7 @@
         <v>39.703261507314402</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
         <v>290</v>
       </c>
@@ -24791,7 +24782,7 @@
         <v>39.186372254460899</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A293" s="4">
         <v>291</v>
       </c>
@@ -24873,7 +24864,7 @@
         <v>39.364514982524398</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
         <v>292</v>
       </c>
@@ -24955,7 +24946,7 @@
         <v>39.162926652029299</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A295" s="4">
         <v>293</v>
       </c>
@@ -25037,7 +25028,7 @@
         <v>38.5659328083131</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
         <v>294</v>
       </c>
@@ -25119,7 +25110,7 @@
         <v>37.502797409335997</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A297" s="4">
         <v>295</v>
       </c>
@@ -25201,7 +25192,7 @@
         <v>36.244865030022403</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A298" s="4">
         <v>296</v>
       </c>
@@ -25283,7 +25274,7 @@
         <v>34.674984555811697</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A299" s="4">
         <v>297</v>
       </c>
@@ -25365,7 +25356,7 @@
         <v>33.072077162676301</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A300" s="4">
         <v>298</v>
       </c>
@@ -25447,7 +25438,7 @@
         <v>31.572873004156001</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A301" s="4">
         <v>299</v>
       </c>
@@ -25529,7 +25520,7 @@
         <v>29.9561712714073</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A302" s="4">
         <v>300</v>
       </c>
@@ -25611,7 +25602,7 @@
         <v>28.400852893868699</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A303" s="4">
         <v>301</v>
       </c>
@@ -25693,7 +25684,7 @@
         <v>26.600677803712301</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A304" s="4">
         <v>302</v>
       </c>
@@ -25775,7 +25766,7 @@
         <v>24.9290866485671</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A305" s="4">
         <v>303</v>
       </c>
@@ -25857,7 +25848,7 @@
         <v>24.330164002215401</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A306" s="4">
         <v>304</v>
       </c>
@@ -25939,7 +25930,7 @@
         <v>24.249288733771099</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A307" s="4">
         <v>305</v>
       </c>
@@ -26021,7 +26012,7 @@
         <v>24.012982288271299</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A308" s="4">
         <v>306</v>
       </c>
@@ -26103,7 +26094,7 @@
         <v>24.021074651591999</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A309" s="4">
         <v>307</v>
       </c>
@@ -26185,7 +26176,7 @@
         <v>24.3361205913288</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A310" s="4">
         <v>308</v>
       </c>
@@ -26267,7 +26258,7 @@
         <v>24.6609309569155</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A311" s="4">
         <v>309</v>
       </c>
@@ -26349,7 +26340,7 @@
         <v>24.609799024355802</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A312" s="4">
         <v>310</v>
       </c>
@@ -26431,7 +26422,7 @@
         <v>24.299107490012901</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A313" s="4">
         <v>311</v>
       </c>
@@ -26513,7 +26504,7 @@
         <v>23.708973109991799</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A314" s="4">
         <v>312</v>
       </c>
@@ -26595,7 +26586,7 @@
         <v>23.320559083278098</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A315" s="4">
         <v>313</v>
       </c>
@@ -26677,7 +26668,7 @@
         <v>23.114949305379099</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A316" s="4">
         <v>314</v>
       </c>
@@ -26759,7 +26750,7 @@
         <v>22.4902681345764</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A317" s="4">
         <v>315</v>
       </c>
@@ -26841,7 +26832,7 @@
         <v>21.5965931053479</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A318" s="4">
         <v>316</v>
       </c>
@@ -26923,7 +26914,7 @@
         <v>21.920946856281098</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A319" s="4">
         <v>317</v>
       </c>
@@ -27005,7 +26996,7 @@
         <v>22.2221324821477</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A320" s="4">
         <v>318</v>
       </c>
@@ -27087,7 +27078,7 @@
         <v>22.075075981773001</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A321" s="4">
         <v>319</v>
       </c>
@@ -27169,7 +27160,7 @@
         <v>22.5758479738234</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
         <v>320</v>
       </c>
@@ -27251,7 +27242,7 @@
         <v>23.204105080850901</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A323" s="4">
         <v>321</v>
       </c>
@@ -27333,7 +27324,7 @@
         <v>23.831982200405601</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
         <v>322</v>
       </c>
@@ -27415,7 +27406,7 @@
         <v>24.100669583639199</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A325" s="4">
         <v>323</v>
       </c>
@@ -27497,7 +27488,7 @@
         <v>23.957310799270498</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
         <v>324</v>
       </c>
@@ -27579,7 +27570,7 @@
         <v>23.347236408235101</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A327" s="4">
         <v>325</v>
       </c>
@@ -27661,7 +27652,7 @@
         <v>23.465210872016701</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
         <v>326</v>
       </c>
@@ -27743,7 +27734,7 @@
         <v>23.819705472483701</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A329" s="4">
         <v>327</v>
       </c>
@@ -27825,7 +27816,7 @@
         <v>23.716015492394899</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
         <v>328</v>
       </c>
@@ -27907,7 +27898,7 @@
         <v>23.7268905067628</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A331" s="4">
         <v>329</v>
       </c>
@@ -27989,7 +27980,7 @@
         <v>24.308211406051001</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A332" s="4">
         <v>330</v>
       </c>
@@ -28071,7 +28062,7 @@
         <v>24.296009563747699</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
         <v>331</v>
       </c>
@@ -28153,7 +28144,7 @@
         <v>24.0975316290112</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A334" s="4">
         <v>332</v>
       </c>
@@ -28235,7 +28226,7 @@
         <v>24.040589746413101</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
         <v>333</v>
       </c>
@@ -28317,7 +28308,7 @@
         <v>24.040297779885101</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A336" s="4">
         <v>334</v>
       </c>
@@ -28399,7 +28390,7 @@
         <v>24.0358557453396</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
         <v>335</v>
       </c>
@@ -28481,7 +28472,7 @@
         <v>24.3059452059323</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A338" s="4">
         <v>336</v>
       </c>
@@ -28563,7 +28554,7 @@
         <v>23.5333877332789</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
         <v>337</v>
       </c>
@@ -28645,7 +28636,7 @@
         <v>22.5567838939</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A340" s="4">
         <v>338</v>
       </c>
@@ -28727,7 +28718,7 @@
         <v>22.037988007839701</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A341" s="4">
         <v>339</v>
       </c>
@@ -28809,7 +28800,7 @@
         <v>21.400084393895899</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A342" s="4">
         <v>340</v>
       </c>
@@ -28891,7 +28882,7 @@
         <v>20.774055296181899</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A343" s="4">
         <v>341</v>
       </c>
@@ -28973,7 +28964,7 @@
         <v>20.713454193698698</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A344" s="4">
         <v>342</v>
       </c>
@@ -29055,7 +29046,7 @@
         <v>20.820641487708102</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A345" s="4">
         <v>343</v>
       </c>
@@ -29137,7 +29128,7 @@
         <v>20.007212094078799</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A346" s="4">
         <v>344</v>
       </c>
@@ -29219,7 +29210,7 @@
         <v>19.400862031148701</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A347" s="4">
         <v>345</v>
       </c>
@@ -29301,7 +29292,7 @@
         <v>19.033849901852602</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A348" s="4">
         <v>346</v>
       </c>
@@ -29383,7 +29374,7 @@
         <v>18.916167065472699</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A349" s="4">
         <v>347</v>
       </c>
@@ -29465,7 +29456,7 @@
         <v>18.9864164410826</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A350" s="4">
         <v>348</v>
       </c>
@@ -29547,7 +29538,7 @@
         <v>19.4721973298854</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A351" s="4">
         <v>349</v>
       </c>
@@ -29629,7 +29620,7 @@
         <v>19.065660266944601</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A352" s="4">
         <v>350</v>
       </c>
@@ -29711,7 +29702,7 @@
         <v>18.450557253607801</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A353" s="4">
         <v>351</v>
       </c>
@@ -29793,7 +29784,7 @@
         <v>17.993188939884899</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A354" s="4">
         <v>352</v>
       </c>
@@ -29875,7 +29866,7 @@
         <v>17.370528133367301</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A355" s="4">
         <v>353</v>
       </c>
@@ -29957,7 +29948,7 @@
         <v>16.361103887229799</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A356" s="4">
         <v>354</v>
       </c>
@@ -30039,7 +30030,7 @@
         <v>15.552843087417999</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A357" s="4">
         <v>355</v>
       </c>
@@ -30121,7 +30112,7 @@
         <v>14.9670865577054</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A358" s="4">
         <v>356</v>
       </c>
@@ -30203,7 +30194,7 @@
         <v>14.2776973816188</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A359" s="4">
         <v>357</v>
       </c>
@@ -30285,7 +30276,7 @@
         <v>13.8608899240038</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A360" s="4">
         <v>358</v>
       </c>
@@ -30367,7 +30358,7 @@
         <v>13.8678426711318</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A361" s="4">
         <v>359</v>
       </c>
@@ -30449,7 +30440,7 @@
         <v>13.9525434693052</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A362" s="4">
         <v>360</v>
       </c>
@@ -30531,7 +30522,7 @@
         <v>14.3228300719055</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A363" s="4">
         <v>361</v>
       </c>
@@ -30613,7 +30604,7 @@
         <v>14.884309733596799</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A364" s="4">
         <v>362</v>
       </c>
@@ -30695,7 +30686,7 @@
         <v>15.1235247980179</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A365" s="4">
         <v>363</v>
       </c>
@@ -30777,7 +30768,7 @@
         <v>15.190511916975399</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A366" s="4">
         <v>364</v>
       </c>
@@ -30859,7 +30850,7 @@
         <v>15.2527142417217</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A367" s="4">
         <v>365</v>
       </c>
@@ -30941,7 +30932,7 @@
         <v>15.064245297757999</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A368" s="4">
         <v>366</v>
       </c>
@@ -31023,7 +31014,7 @@
         <v>14.4087144661494</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A369" s="4">
         <v>367</v>
       </c>
@@ -31105,7 +31096,7 @@
         <v>13.5452486298121</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A370" s="4">
         <v>368</v>
       </c>
@@ -31187,7 +31178,7 @@
         <v>12.9272276871381</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A371" s="4">
         <v>369</v>
       </c>
@@ -31269,7 +31260,7 @@
         <v>12.6547212717257</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A372" s="4">
         <v>370</v>
       </c>
@@ -31351,7 +31342,7 @@
         <v>12.4603744291437</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A373" s="4">
         <v>371</v>
       </c>
@@ -31433,7 +31424,7 @@
         <v>13.563590916138001</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A374" s="4">
         <v>372</v>
       </c>
@@ -31515,7 +31506,7 @@
         <v>14.7019891631258</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A375" s="4">
         <v>373</v>
       </c>
@@ -31597,7 +31588,7 @@
         <v>15.972210649169</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A376" s="4">
         <v>374</v>
       </c>
@@ -31679,7 +31670,7 @@
         <v>17.4146380538457</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A377" s="4">
         <v>375</v>
       </c>
@@ -31761,7 +31752,7 @@
         <v>18.168954250697599</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A378" s="4">
         <v>376</v>
       </c>
@@ -31843,7 +31834,7 @@
         <v>19.023318463398201</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A379" s="4">
         <v>377</v>
       </c>
@@ -31925,7 +31916,7 @@
         <v>19.565028793365201</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A380" s="4">
         <v>378</v>
       </c>
@@ -32007,7 +31998,7 @@
         <v>19.562903121324101</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A381" s="4">
         <v>379</v>
       </c>
@@ -32089,7 +32080,7 @@
         <v>18.794050732586101</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A382" s="4">
         <v>380</v>
       </c>
@@ -32171,7 +32162,7 @@
         <v>17.636341940310299</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A383" s="4">
         <v>381</v>
       </c>
@@ -32253,7 +32244,7 @@
         <v>16.8959692304635</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A384" s="4">
         <v>382</v>
       </c>
@@ -32335,7 +32326,7 @@
         <v>15.9743349349905</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A385" s="4">
         <v>383</v>
       </c>
@@ -32417,7 +32408,7 @@
         <v>15.378211183727</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A386" s="4">
         <v>384</v>
       </c>
@@ -32499,7 +32490,7 @@
         <v>15.8727196009918</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A387" s="4">
         <v>385</v>
       </c>
@@ -32581,7 +32572,7 @@
         <v>16.331905988451901</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A388" s="4">
         <v>386</v>
       </c>
@@ -32663,7 +32654,7 @@
         <v>17.1822329095613</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A389" s="4">
         <v>387</v>
       </c>
@@ -32745,7 +32736,7 @@
         <v>18.110362038823698</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A390" s="4">
         <v>388</v>
       </c>
@@ -32827,7 +32818,7 @@
         <v>18.2596895435288</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A391" s="4">
         <v>389</v>
       </c>
@@ -32909,7 +32900,7 @@
         <v>18.666597694851198</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A392" s="4">
         <v>390</v>
       </c>
@@ -32991,7 +32982,7 @@
         <v>18.6654025041172</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A393" s="4">
         <v>391</v>
       </c>
@@ -33073,7 +33064,7 @@
         <v>19.074902798161101</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A394" s="4">
         <v>392</v>
       </c>
@@ -33155,7 +33146,7 @@
         <v>19.123796163093498</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A395" s="4">
         <v>393</v>
       </c>
@@ -33237,7 +33228,7 @@
         <v>19.009303941781699</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A396" s="4">
         <v>394</v>
       </c>
@@ -33319,7 +33310,7 @@
         <v>18.307842361126099</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A397" s="4">
         <v>395</v>
       </c>
@@ -33401,7 +33392,7 @@
         <v>17.0879358103426</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A398" s="4">
         <v>396</v>
       </c>
@@ -33483,7 +33474,7 @@
         <v>16.290524284807301</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A399" s="4">
         <v>397</v>
       </c>
@@ -33565,7 +33556,7 @@
         <v>15.575556265207601</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A400" s="4">
         <v>398</v>
       </c>
@@ -33647,7 +33638,7 @@
         <v>14.974989311149301</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A401" s="4">
         <v>399</v>
       </c>
@@ -33729,7 +33720,7 @@
         <v>14.592319179051501</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A402" s="4">
         <v>400</v>
       </c>
@@ -33811,7 +33802,7 @@
         <v>14.6044250109464</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A403" s="4">
         <v>401</v>
       </c>
@@ -33893,7 +33884,7 @@
         <v>14.670969027999099</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A404" s="4">
         <v>402</v>
       </c>
@@ -33975,7 +33966,7 @@
         <v>14.641936624316999</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A405" s="4">
         <v>403</v>
       </c>
@@ -34057,7 +34048,7 @@
         <v>14.501903250587301</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A406" s="4">
         <v>404</v>
       </c>
@@ -34139,7 +34130,7 @@
         <v>14.408782776300701</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A407" s="4">
         <v>405</v>
       </c>
@@ -34221,7 +34212,7 @@
         <v>14.787537026659299</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A408" s="4">
         <v>406</v>
       </c>
@@ -34303,7 +34294,7 @@
         <v>15.136210145418</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A409" s="4">
         <v>407</v>
       </c>
@@ -34385,7 +34376,7 @@
         <v>15.197387871054801</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A410" s="4">
         <v>408</v>
       </c>
@@ -34467,7 +34458,7 @@
         <v>14.3193647860939</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A411" s="4">
         <v>409</v>
       </c>
@@ -34549,7 +34540,7 @@
         <v>13.455772188056899</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A412" s="4">
         <v>410</v>
       </c>
@@ -34631,7 +34622,7 @@
         <v>12.6872116218054</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A413" s="4">
         <v>411</v>
       </c>
@@ -34713,7 +34704,7 @@
         <v>12.3476066811418</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A414" s="4">
         <v>412</v>
       </c>
@@ -34795,7 +34786,7 @@
         <v>11.958458425863901</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A415" s="4">
         <v>413</v>
       </c>
@@ -34877,7 +34868,7 @@
         <v>11.9543942276407</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A416" s="4">
         <v>414</v>
       </c>
@@ -34959,7 +34950,7 @@
         <v>12.346677481393</v>
       </c>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A417" s="4">
         <v>415</v>
       </c>
@@ -35041,7 +35032,7 @@
         <v>13.0859098694095</v>
       </c>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A418" s="4">
         <v>416</v>
       </c>
@@ -35123,7 +35114,7 @@
         <v>13.880547133235901</v>
       </c>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A419" s="4">
         <v>417</v>
       </c>
@@ -35205,7 +35196,7 @@
         <v>14.4148382275316</v>
       </c>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A420" s="4">
         <v>418</v>
       </c>
@@ -35287,7 +35278,7 @@
         <v>14.957807606987</v>
       </c>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A421" s="4">
         <v>419</v>
       </c>
@@ -35369,7 +35360,7 @@
         <v>15.3296561037263</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A422" s="4">
         <v>420</v>
       </c>
@@ -35451,7 +35442,7 @@
         <v>15.968613297333301</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A423" s="4">
         <v>421</v>
       </c>
@@ -35533,7 +35524,7 @@
         <v>15.587223497216399</v>
       </c>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A424" s="4">
         <v>422</v>
       </c>
@@ -35615,7 +35606,7 @@
         <v>14.807751837768199</v>
       </c>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A425" s="4">
         <v>423</v>
       </c>
@@ -35697,7 +35688,7 @@
         <v>14.0858205828425</v>
       </c>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A426" s="4">
         <v>424</v>
       </c>
@@ -35779,7 +35770,7 @@
         <v>13.8267905444765</v>
       </c>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A427" s="4">
         <v>425</v>
       </c>
@@ -35861,7 +35852,7 @@
         <v>13.239849190144</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A428" s="4">
         <v>426</v>
       </c>
@@ -35943,7 +35934,7 @@
         <v>12.8184044512486</v>
       </c>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A429" s="4">
         <v>427</v>
       </c>
@@ -36025,7 +36016,7 @@
         <v>12.9848088164429</v>
       </c>
     </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A430" s="4">
         <v>428</v>
       </c>
@@ -36107,7 +36098,7 @@
         <v>13.6733974281626</v>
       </c>
     </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A431" s="4">
         <v>429</v>
       </c>
@@ -36189,7 +36180,7 @@
         <v>14.0396838581923</v>
       </c>
     </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A432" s="4">
         <v>430</v>
       </c>
@@ -36271,7 +36262,7 @@
         <v>14.830533018637199</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A433" s="4">
         <v>431</v>
       </c>
@@ -36353,7 +36344,7 @@
         <v>15.504727933627199</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A434" s="4">
         <v>432</v>
       </c>
@@ -36435,7 +36426,7 @@
         <v>16.6004438243355</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A435" s="4">
         <v>433</v>
       </c>
@@ -36517,7 +36508,7 @@
         <v>17.520967675199099</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A436" s="4">
         <v>434</v>
       </c>
@@ -36599,7 +36590,7 @@
         <v>17.5201980007906</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A437" s="4">
         <v>435</v>
       </c>
@@ -36681,7 +36672,7 @@
         <v>17.258230265366201</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
         <v>436</v>
       </c>
@@ -36763,7 +36754,7 @@
         <v>16.526766103900702</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A439" s="4">
         <v>437</v>
       </c>
@@ -36845,7 +36836,7 @@
         <v>15.948157559890999</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
         <v>438</v>
       </c>
@@ -36927,7 +36918,7 @@
         <v>15.0443602217851</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A441" s="4">
         <v>439</v>
       </c>
@@ -37009,7 +37000,7 @@
         <v>14.787644812962601</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
         <v>440</v>
       </c>
@@ -37091,7 +37082,7 @@
         <v>14.929267156716</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A443" s="4">
         <v>441</v>
       </c>
@@ -37173,7 +37164,7 @@
         <v>15.363294955236601</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
         <v>442</v>
       </c>
@@ -37255,7 +37246,7 @@
         <v>14.755581750279401</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A445" s="4">
         <v>443</v>
       </c>
@@ -37337,7 +37328,7 @@
         <v>14.7586480006429</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
         <v>444</v>
       </c>
@@ -37419,7 +37410,7 @@
         <v>14.951896562116101</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A447" s="4">
         <v>445</v>
       </c>
@@ -37501,7 +37492,7 @@
         <v>15.5170034839955</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A448" s="4">
         <v>446</v>
       </c>
@@ -37583,7 +37574,7 @@
         <v>17.431205146225601</v>
       </c>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A449" s="4">
         <v>447</v>
       </c>
@@ -37665,7 +37656,7 @@
         <v>19.1206474373075</v>
       </c>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A450" s="4">
         <v>448</v>
       </c>
@@ -37747,7 +37738,7 @@
         <v>20.7295214615167</v>
       </c>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A451" s="4">
         <v>449</v>
       </c>
@@ -37829,7 +37820,7 @@
         <v>21.8309555281553</v>
       </c>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A452" s="4">
         <v>450</v>
       </c>
@@ -37911,7 +37902,7 @@
         <v>21.9815681323878</v>
       </c>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A453" s="4">
         <v>451</v>
       </c>
@@ -37993,7 +37984,7 @@
         <v>21.994878157898899</v>
       </c>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A454" s="4">
         <v>452</v>
       </c>
@@ -38075,7 +38066,7 @@
         <v>22.736988437650801</v>
       </c>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A455" s="4">
         <v>453</v>
       </c>
@@ -38157,7 +38148,7 @@
         <v>23.426090840277599</v>
       </c>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A456" s="4">
         <v>454</v>
       </c>
@@ -38239,7 +38230,7 @@
         <v>24.3922916910028</v>
       </c>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A457" s="4">
         <v>455</v>
       </c>
@@ -38321,7 +38312,7 @@
         <v>25.052390563449102</v>
       </c>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A458" s="4">
         <v>456</v>
       </c>
@@ -38403,7 +38394,7 @@
         <v>26.2077623299962</v>
       </c>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A459" s="4">
         <v>457</v>
       </c>
@@ -38485,7 +38476,7 @@
         <v>27.435884325085102</v>
       </c>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A460" s="4">
         <v>458</v>
       </c>
@@ -38567,7 +38558,7 @@
         <v>28.5370556655485</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A461" s="4">
         <v>459</v>
       </c>
@@ -38649,7 +38640,7 @@
         <v>30.907045423627299</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A462" s="4">
         <v>460</v>
       </c>
@@ -38731,7 +38722,7 @@
         <v>33.586863040948401</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A463" s="4">
         <v>461</v>
       </c>
@@ -38813,7 +38804,7 @@
         <v>35.035803606518698</v>
       </c>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A464" s="4">
         <v>462</v>
       </c>
@@ -38895,7 +38886,7 @@
         <v>36.293336032319701</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A465" s="4">
         <v>463</v>
       </c>
@@ -38977,7 +38968,7 @@
         <v>36.319274648816197</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A466" s="4">
         <v>464</v>
       </c>
@@ -39059,7 +39050,7 @@
         <v>36.2749183166666</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A467" s="4">
         <v>465</v>
       </c>
@@ -39141,7 +39132,7 @@
         <v>36.221345245740899</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A468" s="4">
         <v>466</v>
       </c>
@@ -39223,7 +39214,7 @@
         <v>35.285229299660898</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A469" s="4">
         <v>467</v>
       </c>
@@ -39305,7 +39296,7 @@
         <v>34.491844671828403</v>
       </c>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A470" s="4">
         <v>468</v>
       </c>
@@ -39387,7 +39378,7 @@
         <v>34.539741210403903</v>
       </c>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A471" s="4">
         <v>469</v>
       </c>
@@ -39469,7 +39460,7 @@
         <v>35.215494782381597</v>
       </c>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A472" s="4">
         <v>470</v>
       </c>
@@ -39551,7 +39542,7 @@
         <v>35.912930159901897</v>
       </c>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A473" s="4">
         <v>471</v>
       </c>
@@ -39633,7 +39624,7 @@
         <v>36.983497102724797</v>
       </c>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A474" s="4">
         <v>472</v>
       </c>
@@ -39715,7 +39706,7 @@
         <v>38.187671721008201</v>
       </c>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A475" s="4">
         <v>473</v>
       </c>
@@ -39797,7 +39788,7 @@
         <v>39.099087402643597</v>
       </c>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A476" s="4">
         <v>474</v>
       </c>
@@ -39879,7 +39870,7 @@
         <v>39.172245084957801</v>
       </c>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A477" s="4">
         <v>475</v>
       </c>
@@ -39961,7 +39952,7 @@
         <v>39.492990098616197</v>
       </c>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A478" s="4">
         <v>476</v>
       </c>
@@ -40043,7 +40034,7 @@
         <v>39.496202088094599</v>
       </c>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A479" s="4">
         <v>477</v>
       </c>
@@ -40125,7 +40116,7 @@
         <v>39.624171734112402</v>
       </c>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A480" s="4">
         <v>478</v>
       </c>
@@ -40207,7 +40198,7 @@
         <v>38.991812702546298</v>
       </c>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A481" s="4">
         <v>479</v>
       </c>
@@ -40289,7 +40280,7 @@
         <v>37.411146186790901</v>
       </c>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A482" s="4">
         <v>480</v>
       </c>
@@ -40371,7 +40362,7 @@
         <v>35.048205196674999</v>
       </c>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A483" s="4">
         <v>481</v>
       </c>
@@ -40453,7 +40444,7 @@
         <v>33.114286217894701</v>
       </c>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A484" s="4">
         <v>482</v>
       </c>
@@ -40535,7 +40526,7 @@
         <v>31.660245288681502</v>
       </c>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A485" s="4">
         <v>483</v>
       </c>
@@ -40617,7 +40608,7 @@
         <v>30.7003919657691</v>
       </c>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A486" s="4">
         <v>484</v>
       </c>
@@ -40699,7 +40690,7 @@
         <v>30.074803034748701</v>
       </c>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A487" s="4">
         <v>485</v>
       </c>
@@ -40781,7 +40772,7 @@
         <v>30.169507806168099</v>
       </c>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A488" s="4">
         <v>486</v>
       </c>
@@ -40863,7 +40854,7 @@
         <v>29.910825236138699</v>
       </c>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A489" s="4">
         <v>487</v>
       </c>
@@ -40945,7 +40936,7 @@
         <v>30.2008063990999</v>
       </c>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A490" s="4">
         <v>488</v>
       </c>
@@ -41027,7 +41018,7 @@
         <v>30.505063722257201</v>
       </c>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A491" s="4">
         <v>489</v>
       </c>
@@ -41109,7 +41100,7 @@
         <v>30.638516125959701</v>
       </c>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A492" s="4">
         <v>490</v>
       </c>
@@ -41191,7 +41182,7 @@
         <v>30.983166642136901</v>
       </c>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A493" s="4">
         <v>491</v>
       </c>
@@ -41273,7 +41264,7 @@
         <v>31.0967744154316</v>
       </c>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A494" s="4">
         <v>492</v>
       </c>
@@ -41355,7 +41346,7 @@
         <v>31.463819131952899</v>
       </c>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A495" s="4">
         <v>493</v>
       </c>
@@ -41437,7 +41428,7 @@
         <v>30.938772501267199</v>
       </c>
     </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A496" s="4">
         <v>494</v>
       </c>
@@ -41519,7 +41510,7 @@
         <v>30.535927713522199</v>
       </c>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A497" s="4">
         <v>495</v>
       </c>
@@ -41601,7 +41592,7 @@
         <v>30.282776040365199</v>
       </c>
     </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A498" s="4">
         <v>496</v>
       </c>
@@ -41683,7 +41674,7 @@
         <v>30.497836595735201</v>
       </c>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A499" s="4">
         <v>497</v>
       </c>
@@ -41765,7 +41756,7 @@
         <v>30.912779117799101</v>
       </c>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A500" s="4">
         <v>498</v>
       </c>
@@ -41847,7 +41838,7 @@
         <v>31.2099596113381</v>
       </c>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A501" s="4">
         <v>499</v>
       </c>
@@ -41929,7 +41920,7 @@
         <v>31.113824222237</v>
       </c>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A502" s="4">
         <v>500</v>
       </c>
@@ -42011,7 +42002,7 @@
         <v>30.960371035230398</v>
       </c>
     </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A503" s="4">
         <v>501</v>
       </c>
@@ -42059,7 +42050,7 @@
         <f>100*testdata[[#This Row],[-DM14]]/testdata[[#This Row],[TR14]]</f>
         <v>31.150968674636061</v>
       </c>
-      <c r="N503" s="6">
+      <c r="N503" s="11">
         <f>100*ABS(testdata[[#This Row],[+DI14]]-testdata[[#This Row],[-DI14]])/(testdata[[#This Row],[+DI14]]+testdata[[#This Row],[-DI14]])</f>
         <v>27.387308306629919</v>
       </c>
